--- a/data/listuser/command.xlsx
+++ b/data/listuser/command.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\listuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB88191-C9AA-4151-9CFB-807E29FC62EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05002155-5317-4435-885F-7BB469FB5099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{090BDAAA-3D4B-46BE-B3E8-44D57DE99DBA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{090BDAAA-3D4B-46BE-B3E8-44D57DE99DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="25">
   <si>
     <t>a</t>
   </si>
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFD962E-5CBC-44FA-ACD8-5B43AE5550AD}">
-  <dimension ref="C2:BA33"/>
+  <dimension ref="C2:BA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="X43" sqref="X43"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2016,6 +2016,70 @@
         <v>9</v>
       </c>
     </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1">
+        <v>6</v>
+      </c>
+      <c r="J36" s="1">
+        <v>7</v>
+      </c>
+      <c r="K36" s="1">
+        <v>8</v>
+      </c>
+      <c r="L36" s="1">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="AE3:AO3"/>

--- a/data/listuser/command.xlsx
+++ b/data/listuser/command.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\listuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05002155-5317-4435-885F-7BB469FB5099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7566D516-0EF6-4CB5-B710-564ABF466767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{090BDAAA-3D4B-46BE-B3E8-44D57DE99DBA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{090BDAAA-3D4B-46BE-B3E8-44D57DE99DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="26">
   <si>
     <t>a</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFD962E-5CBC-44FA-ACD8-5B43AE5550AD}">
-  <dimension ref="C2:BA36"/>
+  <dimension ref="C2:BA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="AH34" sqref="AH34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1984,7 +1987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C33" s="1">
         <v>0</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C36" s="1">
         <v>0</v>
       </c>
@@ -2077,6 +2080,91 @@
         <v>8</v>
       </c>
       <c r="L36" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="1">
+        <v>8</v>
+      </c>
+      <c r="K39" s="1">
+        <v>9</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>8</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>8</v>
+      </c>
+      <c r="P39" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1">
+        <v>5</v>
+      </c>
+      <c r="I40" s="1">
+        <v>6</v>
+      </c>
+      <c r="J40" s="1">
+        <v>7</v>
+      </c>
+      <c r="K40" s="1">
+        <v>8</v>
+      </c>
+      <c r="L40" s="1">
         <v>9</v>
       </c>
     </row>

--- a/data/listuser/command.xlsx
+++ b/data/listuser/command.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\listuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7566D516-0EF6-4CB5-B710-564ABF466767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33C63F8-DCD3-46E8-9431-FDDDDBB0DDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{090BDAAA-3D4B-46BE-B3E8-44D57DE99DBA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="26">
   <si>
     <t>a</t>
   </si>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFD962E-5CBC-44FA-ACD8-5B43AE5550AD}">
-  <dimension ref="C2:BA40"/>
+  <dimension ref="C2:BA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="AH34" sqref="AH34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AD40" sqref="AD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1987,7 +1987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C33" s="1">
         <v>0</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C36" s="1">
         <v>0</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C39" s="1" t="s">
         <v>14</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C40" s="1">
         <v>0</v>
       </c>
@@ -2166,6 +2166,142 @@
       </c>
       <c r="L40" s="1">
         <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M42" s="1">
+        <v>3</v>
+      </c>
+      <c r="N42" s="1">
+        <v>2</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>7</v>
+      </c>
+      <c r="T42" s="1">
+        <v>6</v>
+      </c>
+      <c r="U42" s="1">
+        <v>5</v>
+      </c>
+      <c r="V42" s="1">
+        <v>4</v>
+      </c>
+      <c r="W42" s="1">
+        <v>3</v>
+      </c>
+      <c r="X42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4</v>
+      </c>
+      <c r="H43" s="1">
+        <v>5</v>
+      </c>
+      <c r="I43" s="1">
+        <v>6</v>
+      </c>
+      <c r="J43" s="1">
+        <v>7</v>
+      </c>
+      <c r="K43" s="1">
+        <v>8</v>
+      </c>
+      <c r="L43" s="1">
+        <v>9</v>
+      </c>
+      <c r="M43" s="1">
+        <v>10</v>
+      </c>
+      <c r="N43" s="1">
+        <v>11</v>
+      </c>
+      <c r="O43" s="1">
+        <v>12</v>
+      </c>
+      <c r="P43" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>14</v>
+      </c>
+      <c r="R43" s="1">
+        <v>15</v>
+      </c>
+      <c r="S43" s="1">
+        <v>16</v>
+      </c>
+      <c r="T43" s="1">
+        <v>17</v>
+      </c>
+      <c r="U43" s="1">
+        <v>18</v>
+      </c>
+      <c r="V43" s="1">
+        <v>19</v>
+      </c>
+      <c r="W43" s="1">
+        <v>20</v>
+      </c>
+      <c r="X43" s="1">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/listuser/command.xlsx
+++ b/data/listuser/command.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\listuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33C63F8-DCD3-46E8-9431-FDDDDBB0DDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6762994D-3764-435B-BFA4-ED683A9A8867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{090BDAAA-3D4B-46BE-B3E8-44D57DE99DBA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{090BDAAA-3D4B-46BE-B3E8-44D57DE99DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="26">
   <si>
     <t>a</t>
   </si>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFD962E-5CBC-44FA-ACD8-5B43AE5550AD}">
-  <dimension ref="C2:BA43"/>
+  <dimension ref="C2:BA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="AD40" sqref="AD40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="Z50" sqref="Z50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2304,6 +2304,136 @@
         <v>21</v>
       </c>
     </row>
+    <row r="46" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" s="1">
+        <v>3</v>
+      </c>
+      <c r="M46" s="1">
+        <v>2</v>
+      </c>
+      <c r="N46" s="1">
+        <v>1</v>
+      </c>
+      <c r="O46" s="1">
+        <v>5</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>7</v>
+      </c>
+      <c r="S46" s="1">
+        <v>6</v>
+      </c>
+      <c r="T46" s="1">
+        <v>5</v>
+      </c>
+      <c r="U46" s="1">
+        <v>4</v>
+      </c>
+      <c r="V46" s="1">
+        <v>3</v>
+      </c>
+      <c r="W46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3</v>
+      </c>
+      <c r="G47" s="1">
+        <v>4</v>
+      </c>
+      <c r="H47" s="1">
+        <v>5</v>
+      </c>
+      <c r="I47" s="1">
+        <v>6</v>
+      </c>
+      <c r="J47" s="1">
+        <v>7</v>
+      </c>
+      <c r="K47" s="1">
+        <v>8</v>
+      </c>
+      <c r="L47" s="1">
+        <v>9</v>
+      </c>
+      <c r="M47" s="1">
+        <v>10</v>
+      </c>
+      <c r="N47" s="1">
+        <v>11</v>
+      </c>
+      <c r="O47" s="1">
+        <v>12</v>
+      </c>
+      <c r="P47" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>14</v>
+      </c>
+      <c r="R47" s="1">
+        <v>15</v>
+      </c>
+      <c r="S47" s="1">
+        <v>16</v>
+      </c>
+      <c r="T47" s="1">
+        <v>17</v>
+      </c>
+      <c r="U47" s="1">
+        <v>18</v>
+      </c>
+      <c r="V47" s="1">
+        <v>19</v>
+      </c>
+      <c r="W47" s="1">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="AE3:AO3"/>

--- a/data/listuser/command.xlsx
+++ b/data/listuser/command.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\listuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6762994D-3764-435B-BFA4-ED683A9A8867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735D81C1-BCA9-43EA-8CD0-3317C0A7F711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{090BDAAA-3D4B-46BE-B3E8-44D57DE99DBA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{090BDAAA-3D4B-46BE-B3E8-44D57DE99DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="27">
   <si>
     <t>a</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>digit terakhir adalah jenis laporan</t>
   </si>
 </sst>
 </file>
@@ -176,9 +179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -216,7 +219,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -322,7 +325,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,7 +467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -472,19 +475,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFD962E-5CBC-44FA-ACD8-5B43AE5550AD}">
-  <dimension ref="C2:BA47"/>
+  <dimension ref="C2:BA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="Z50" sqref="Z50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="W55" sqref="W55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="124" width="2.7265625" style="1" customWidth="1"/>
-    <col min="125" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="124" width="2.77734375" style="1" customWidth="1"/>
+    <col min="125" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:41" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:41" x14ac:dyDescent="0.3">
       <c r="K2" s="1">
         <v>0</v>
       </c>
@@ -495,7 +498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:41" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +597,7 @@
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
     </row>
-    <row r="4" spans="3:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C4" s="1">
         <v>0</v>
       </c>
@@ -683,7 +686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="3:41" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:41" x14ac:dyDescent="0.3">
       <c r="L6" s="1">
         <v>0</v>
       </c>
@@ -691,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -758,7 +761,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="3:41" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>0</v>
       </c>
@@ -814,7 +817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="3:41" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:41" x14ac:dyDescent="0.3">
       <c r="I11" s="1">
         <v>0</v>
       </c>
@@ -822,7 +825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:41" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
@@ -887,7 +890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="3:41" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>0</v>
       </c>
@@ -952,7 +955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="3:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:53" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>0</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:53" x14ac:dyDescent="0.3">
       <c r="L19" s="1">
         <v>0</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:53" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:53" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>0</v>
       </c>
@@ -1442,7 +1445,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:53" x14ac:dyDescent="0.3">
       <c r="K24" s="1">
         <v>0</v>
       </c>
@@ -1450,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:53" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:53" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>0</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:53" x14ac:dyDescent="0.3">
       <c r="N28" s="1">
         <v>0</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:53" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:53" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>0</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:53" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
@@ -1987,7 +1990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>0</v>
       </c>
@@ -2019,7 +2022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
@@ -2051,7 +2054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>0</v>
       </c>
@@ -2083,7 +2086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>14</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>0</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
@@ -2236,7 +2239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <v>0</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
         <v>0</v>
       </c>
@@ -2431,6 +2434,139 @@
         <v>19</v>
       </c>
       <c r="W47" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>9</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="1">
+        <v>3</v>
+      </c>
+      <c r="K49" s="1">
+        <v>2</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1</v>
+      </c>
+      <c r="N49" s="1">
+        <v>1</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P49" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>2</v>
+      </c>
+      <c r="S49" s="1">
+        <v>4</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U49" s="1">
+        <v>3</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W49" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>4</v>
+      </c>
+      <c r="H50" s="1">
+        <v>5</v>
+      </c>
+      <c r="I50" s="1">
+        <v>6</v>
+      </c>
+      <c r="J50" s="1">
+        <v>7</v>
+      </c>
+      <c r="K50" s="1">
+        <v>8</v>
+      </c>
+      <c r="L50" s="1">
+        <v>9</v>
+      </c>
+      <c r="M50" s="1">
+        <v>10</v>
+      </c>
+      <c r="N50" s="1">
+        <v>11</v>
+      </c>
+      <c r="O50" s="1">
+        <v>12</v>
+      </c>
+      <c r="P50" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>14</v>
+      </c>
+      <c r="R50" s="1">
+        <v>15</v>
+      </c>
+      <c r="S50" s="1">
+        <v>16</v>
+      </c>
+      <c r="T50" s="1">
+        <v>17</v>
+      </c>
+      <c r="U50" s="1">
+        <v>18</v>
+      </c>
+      <c r="V50" s="1">
+        <v>19</v>
+      </c>
+      <c r="W50" s="1">
         <v>20</v>
       </c>
     </row>

--- a/data/listuser/command.xlsx
+++ b/data/listuser/command.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\listuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735D81C1-BCA9-43EA-8CD0-3317C0A7F711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE734F3-53E0-48A9-9719-8C147814492E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{090BDAAA-3D4B-46BE-B3E8-44D57DE99DBA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="27">
   <si>
     <t>a</t>
   </si>
@@ -147,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -159,6 +159,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -475,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFD962E-5CBC-44FA-ACD8-5B43AE5550AD}">
-  <dimension ref="C2:BA50"/>
+  <dimension ref="C2:BA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="W55" sqref="W55"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="AC58" sqref="AC58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2437,137 +2440,202 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="1" t="s">
+    <row r="49" spans="3:36" x14ac:dyDescent="0.3">
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>1</v>
+      </c>
+      <c r="T49" s="2">
+        <v>2</v>
+      </c>
+      <c r="V49" s="2">
+        <v>3</v>
+      </c>
+      <c r="X49" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:36" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="1">
-        <v>3</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
         <v>9</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" s="1">
-        <v>3</v>
-      </c>
-      <c r="K49" s="1">
-        <v>2</v>
-      </c>
-      <c r="L49" s="1">
-        <v>1</v>
-      </c>
-      <c r="M49" s="1">
-        <v>1</v>
-      </c>
-      <c r="N49" s="1">
-        <v>1</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P49" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>0</v>
-      </c>
-      <c r="R49" s="1">
-        <v>2</v>
-      </c>
-      <c r="S49" s="1">
-        <v>4</v>
-      </c>
-      <c r="T49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U49" s="1">
-        <v>3</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W49" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="3" t="s">
+      <c r="I50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="1">
+        <v>3</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P50" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>2</v>
+      </c>
+      <c r="S50" s="1">
+        <v>4</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U50" s="1">
+        <v>3</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W50" s="3">
+        <v>1</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ50" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C50" s="1">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1">
-        <v>2</v>
-      </c>
-      <c r="F50" s="1">
-        <v>3</v>
-      </c>
-      <c r="G50" s="1">
-        <v>4</v>
-      </c>
-      <c r="H50" s="1">
-        <v>5</v>
-      </c>
-      <c r="I50" s="1">
-        <v>6</v>
-      </c>
-      <c r="J50" s="1">
-        <v>7</v>
-      </c>
-      <c r="K50" s="1">
+    <row r="51" spans="3:36" x14ac:dyDescent="0.3">
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1">
+        <v>4</v>
+      </c>
+      <c r="H51" s="1">
+        <v>5</v>
+      </c>
+      <c r="I51" s="2">
+        <v>6</v>
+      </c>
+      <c r="J51" s="1">
+        <v>7</v>
+      </c>
+      <c r="K51" s="1">
         <v>8</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L51" s="1">
         <v>9</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M51" s="1">
         <v>10</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N51" s="1">
         <v>11</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O51" s="2">
         <v>12</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P51" s="1">
         <v>13</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q51" s="1">
         <v>14</v>
       </c>
-      <c r="R50" s="1">
+      <c r="R51" s="1">
         <v>15</v>
       </c>
-      <c r="S50" s="1">
+      <c r="S51" s="1">
         <v>16</v>
       </c>
-      <c r="T50" s="1">
+      <c r="T51" s="2">
         <v>17</v>
       </c>
-      <c r="U50" s="1">
+      <c r="U51" s="1">
         <v>18</v>
       </c>
-      <c r="V50" s="1">
+      <c r="V51" s="2">
         <v>19</v>
       </c>
-      <c r="W50" s="1">
+      <c r="W51" s="1">
         <v>20</v>
+      </c>
+      <c r="X51" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y51" s="5">
+        <v>22</v>
+      </c>
+      <c r="Z51" s="5">
+        <v>23</v>
+      </c>
+      <c r="AA51" s="5">
+        <v>24</v>
+      </c>
+      <c r="AB51" s="5">
+        <v>25</v>
+      </c>
+      <c r="AC51" s="5">
+        <v>26</v>
+      </c>
+      <c r="AD51" s="5">
+        <v>27</v>
+      </c>
+      <c r="AE51" s="5">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/listuser/command.xlsx
+++ b/data/listuser/command.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\listuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE734F3-53E0-48A9-9719-8C147814492E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8053CF75-D60D-4295-90B5-FA0C943F198A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{090BDAAA-3D4B-46BE-B3E8-44D57DE99DBA}"/>
   </bookViews>
@@ -147,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -159,9 +159,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,7 +478,7 @@
   <dimension ref="C2:BA51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="AC58" sqref="AC58"/>
+      <selection activeCell="AY54" sqref="AY54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2616,25 +2613,25 @@
       <c r="X51" s="2">
         <v>21</v>
       </c>
-      <c r="Y51" s="5">
+      <c r="Y51" s="1">
         <v>22</v>
       </c>
-      <c r="Z51" s="5">
+      <c r="Z51" s="1">
         <v>23</v>
       </c>
-      <c r="AA51" s="5">
+      <c r="AA51" s="1">
         <v>24</v>
       </c>
-      <c r="AB51" s="5">
+      <c r="AB51" s="1">
         <v>25</v>
       </c>
-      <c r="AC51" s="5">
+      <c r="AC51" s="1">
         <v>26</v>
       </c>
-      <c r="AD51" s="5">
+      <c r="AD51" s="1">
         <v>27</v>
       </c>
-      <c r="AE51" s="5">
+      <c r="AE51" s="1">
         <v>28</v>
       </c>
     </row>
